--- a/Software/Crowdstrike.xlsx
+++ b/Software/Crowdstrike.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27559B28-5F3D-3D4F-95D7-044832D2D766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CC1523-E1AD-4F45-BE94-B44CBF5EB190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -501,9 +538,6 @@
   </si>
   <si>
     <t>Buy/Sell</t>
-  </si>
-  <si>
-    <t>Crowdstrike</t>
   </si>
   <si>
     <t>P/S</t>
@@ -522,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -858,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -936,14 +971,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -975,6 +1005,22 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -993,25 +1039,13 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2097,6 +2131,441 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=bq8rqh&amp;q=XNAS%3aCRWD&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>bq8rqh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>242</v>
+    <v>92.25</v>
+    <v>1.0483</v>
+    <v>0.02</v>
+    <v>1.5650000000000001E-4</v>
+    <v>-0.32</v>
+    <v>-2.5040000000000001E-3</v>
+    <v>USD</v>
+    <v>CrowdStrike Holdings, Inc. is a cybersecurity company that provides cloud-delivered protection of endpoints, cloud workloads, identity and data via a software-as-a-service (SaaS) subscription-based model. The Company offers Falcon platform in a SaaS subscription-based model, which delivers integrated, technologies that deliver protection and performance, while reducing customer complexity. The Company's Falcon platform leverages a single lightweight-agent architecture with integrated cloud modules spanning multiple security markets, including corporate workload security, managed security services, security and vulnerability management, information technology (IT) operations management, threat intelligence services, identity protection and log management. The Company offers approximately 23 cloud modules on its Falcon platform, which include Falcon Prevent, Falcon Insight, Falcon Device Control, Falcon Firewall Management, Falcon XDR, Falcon Discover, Falcon Spotlight and others.</v>
+    <v>7273</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>206 E. 9TH STREET, SUITE 1400, AUSTIN, TX, 78701 US</v>
+    <v>128.13990000000001</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45022.999716260936</v>
+    <v>0</v>
+    <v>123.70059999999999</v>
+    <v>30148136480</v>
+    <v>CROWDSTRIKE HOLDINGS, INC.</v>
+    <v>CROWDSTRIKE HOLDINGS, INC.</v>
+    <v>126</v>
+    <v>127.8</v>
+    <v>127.82</v>
+    <v>127.5</v>
+    <v>235864000</v>
+    <v>CRWD</v>
+    <v>CROWDSTRIKE HOLDINGS, INC. (XNAS:CRWD)</v>
+    <v>3989171</v>
+    <v>5866656</v>
+    <v>2011</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="44">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2397,10 +2866,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P106" sqref="P106"/>
+      <selection pane="bottomRight" activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2412,8 +2881,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>156</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2017</v>
@@ -2524,13 +2993,13 @@
       <c r="L3" s="24">
         <v>6020000000</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="45" t="s">
         <v>112</v>
       </c>
       <c r="P3" s="19" t="s">
@@ -2584,15 +3053,15 @@
         <f t="shared" si="0"/>
         <v>0.23664749383730488</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="46">
         <f>(G4+F4+E4)/3</f>
         <v>0.80114606963000312</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="46">
         <f>(G20+F20+E20)/3</f>
         <v>0.28779739161510814</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="46">
         <f>(G29+F29+E29)/3</f>
         <v>0.39139338345003249</v>
       </c>
@@ -2666,13 +3135,13 @@
       <c r="G6" s="10">
         <v>1068373000</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="O6" s="45" t="s">
         <v>116</v>
       </c>
       <c r="P6" s="19" t="s">
@@ -2701,15 +3170,15 @@
       <c r="G7" s="2">
         <v>0.73599999999999999</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="46">
         <f>G7</f>
         <v>0.73599999999999999</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="46">
         <f>G21</f>
         <v>-8.0199999999999994E-2</v>
       </c>
-      <c r="O7" s="49">
+      <c r="O7" s="46">
         <f>G30</f>
         <v>-0.16009999999999999</v>
       </c>
@@ -2771,7 +3240,7 @@
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="M9" s="48" t="s">
+      <c r="M9" s="45" t="s">
         <v>96</v>
       </c>
       <c r="N9" s="19" t="s">
@@ -2806,15 +3275,15 @@
       <c r="G10" s="1">
         <v>223092000</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="46">
         <f>(G9+F9+E9)/3</f>
         <v>0.25723326987731249</v>
       </c>
-      <c r="N10" s="49">
+      <c r="N10" s="46">
         <f>(G13+F13+E13)/3</f>
         <v>0.63834313909178275</v>
       </c>
-      <c r="O10" s="49">
+      <c r="O10" s="46">
         <f>(G80+F80+E80)/3</f>
         <v>0.18358173302802008</v>
       </c>
@@ -2868,13 +3337,13 @@
       <c r="G12" s="1">
         <v>839638000</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="N12" s="48" t="s">
+      <c r="N12" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="O12" s="48" t="s">
+      <c r="O12" s="45" t="s">
         <v>120</v>
       </c>
       <c r="P12" s="19" t="s">
@@ -2911,7 +3380,7 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-      <c r="M13" s="49">
+      <c r="M13" s="46">
         <f>G28/G72</f>
         <v>-0.22394792814098877</v>
       </c>
@@ -2919,7 +3388,7 @@
         <f>G28/G54</f>
         <v>-6.422153996497329E-2</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="46">
         <f>(G28-G98)/G73</f>
         <v>-6.422153996497329E-2</v>
       </c>
@@ -2973,17 +3442,17 @@
       <c r="G15" s="1">
         <v>1210921000</v>
       </c>
-      <c r="M15" s="48" t="s">
+      <c r="M15" s="45" t="s">
         <v>122</v>
       </c>
       <c r="N15" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="O15" s="19" t="s">
+      <c r="P15" s="47" t="s">
         <v>158</v>
-      </c>
-      <c r="P15" s="50" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3012,17 +3481,17 @@
         <f>(SUM(C35:G35)/5)</f>
         <v>7.5729906868409996E-2</v>
       </c>
-      <c r="N16" s="51">
-        <f>O100/G3</f>
-        <v>1.8395388918671941E-11</v>
-      </c>
-      <c r="O16" s="51">
-        <f>O100/G25</f>
-        <v>-1.6686748893603216E-10</v>
-      </c>
-      <c r="P16" s="52">
-        <f>O100/G106</f>
-        <v>6.0443973022490355E-11</v>
+      <c r="N16" s="48">
+        <f>O101/G3</f>
+        <v>20.768986700137916</v>
+      </c>
+      <c r="O16" s="48">
+        <f>O101/G25</f>
+        <v>-188.39877067671523</v>
+      </c>
+      <c r="P16" s="49">
+        <f>O101/G106</f>
+        <v>68.243192756493684</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3070,8 +3539,8 @@
       <c r="G18" s="1">
         <v>68810000</v>
       </c>
-      <c r="M18" s="53" t="s">
-        <v>160</v>
+      <c r="M18" s="50" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3096,7 +3565,7 @@
       <c r="G19" s="10">
         <v>-116444000</v>
       </c>
-      <c r="M19" s="54">
+      <c r="M19" s="51">
         <f>G40-G56-G61</f>
         <v>1221917000</v>
       </c>
@@ -4601,10 +5070,10 @@
       <c r="G83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N83" s="58" t="s">
+      <c r="N83" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="O83" s="59"/>
+      <c r="O83" s="66"/>
     </row>
     <row r="84" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4628,10 +5097,10 @@
       <c r="G84" s="1">
         <v>33248000</v>
       </c>
-      <c r="N84" s="60" t="s">
+      <c r="N84" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="O84" s="61"/>
+      <c r="O84" s="68"/>
     </row>
     <row r="85" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4655,10 +5124,10 @@
       <c r="G85" s="1">
         <v>382100000</v>
       </c>
-      <c r="N85" s="62" t="s">
+      <c r="N85" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="O85" s="63">
+      <c r="O85" s="54">
         <f>G17</f>
         <v>-25231000</v>
       </c>
@@ -4685,10 +5154,10 @@
       <c r="G86" s="1">
         <v>120633000</v>
       </c>
-      <c r="N86" s="62" t="s">
+      <c r="N86" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="O86" s="63">
+      <c r="O86" s="54">
         <f>G56</f>
         <v>9820000</v>
       </c>
@@ -4715,10 +5184,10 @@
       <c r="G87" s="10">
         <v>574784000</v>
       </c>
-      <c r="N87" s="62" t="s">
+      <c r="N87" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="O87" s="63">
+      <c r="O87" s="54">
         <f>G61</f>
         <v>764896000</v>
       </c>
@@ -4745,10 +5214,10 @@
       <c r="G88" s="1">
         <v>-112143000</v>
       </c>
-      <c r="N88" s="64" t="s">
+      <c r="N88" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="O88" s="65">
+      <c r="O88" s="56">
         <f>O85/(O86+O87)</f>
         <v>-3.2568063651712373E-2</v>
       </c>
@@ -4783,10 +5252,10 @@
       </c>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
-      <c r="N89" s="62" t="s">
+      <c r="N89" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="O89" s="63">
+      <c r="O89" s="54">
         <f>G27</f>
         <v>72355000</v>
       </c>
@@ -4814,10 +5283,10 @@
       <c r="G90" s="1">
         <v>-414518000</v>
       </c>
-      <c r="N90" s="62" t="s">
+      <c r="N90" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="O90" s="63">
+      <c r="O90" s="54">
         <f>G25</f>
         <v>-160023000</v>
       </c>
@@ -4844,10 +5313,10 @@
       <c r="G91" s="1">
         <v>-16309000</v>
       </c>
-      <c r="N91" s="64" t="s">
+      <c r="N91" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="O91" s="65">
+      <c r="O91" s="56">
         <f>O89/O90</f>
         <v>-0.4521537528980209</v>
       </c>
@@ -4874,10 +5343,10 @@
       <c r="G92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N92" s="66" t="s">
+      <c r="N92" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="O92" s="67">
+      <c r="O92" s="58">
         <f>O88*(1-O91)</f>
         <v>-4.7293835856455746E-2</v>
       </c>
@@ -4904,10 +5373,10 @@
       <c r="G93" s="1">
         <v>-21546000</v>
       </c>
-      <c r="N93" s="60" t="s">
+      <c r="N93" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="O93" s="61"/>
+      <c r="O93" s="70"/>
     </row>
     <row r="94" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4931,10 +5400,10 @@
       <c r="G94" s="10">
         <v>-564516000</v>
       </c>
-      <c r="N94" s="62" t="s">
+      <c r="N94" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="O94" s="68">
+      <c r="O94" s="59">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -4960,11 +5429,12 @@
       <c r="G95" s="1">
         <v>-219000</v>
       </c>
-      <c r="N95" s="69" t="s">
+      <c r="N95" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="O95" s="70">
-        <v>1.02</v>
+      <c r="O95" s="61" cm="1">
+        <f t="array" ref="O95">_FV(A1,"Beta")</f>
+        <v>1.0483</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -4989,10 +5459,10 @@
       <c r="G96" s="1">
         <v>15899000</v>
       </c>
-      <c r="N96" s="62" t="s">
+      <c r="N96" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="O96" s="68">
+      <c r="O96" s="59">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5018,12 +5488,12 @@
       <c r="G97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N97" s="66" t="s">
+      <c r="N97" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="O97" s="67">
+      <c r="O97" s="58">
         <f>(O94)+((O95)*(O96-O94))</f>
-        <v>8.4861000000000006E-2</v>
+        <v>8.6079315000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5048,10 +5518,10 @@
       <c r="G98" s="36">
         <v>0</v>
       </c>
-      <c r="N98" s="60" t="s">
+      <c r="N98" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="O98" s="61"/>
+      <c r="O98" s="70"/>
     </row>
     <row r="99" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5075,10 +5545,10 @@
       <c r="G99" s="1">
         <v>56851000</v>
       </c>
-      <c r="N99" s="62" t="s">
+      <c r="N99" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="O99" s="63">
+      <c r="O99" s="54">
         <f>O86+O87</f>
         <v>774716000</v>
       </c>
@@ -5105,12 +5575,12 @@
       <c r="G100" s="10">
         <v>72531000</v>
       </c>
-      <c r="N100" s="64" t="s">
+      <c r="N100" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="O100" s="65">
+      <c r="O100" s="56">
         <f>O99/O103</f>
-        <v>2.6702636182010676E-2</v>
+        <v>2.5053186813896414E-2</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5135,11 +5605,12 @@
       <c r="G101" s="1">
         <v>-4774000</v>
       </c>
-      <c r="N101" s="69" t="s">
+      <c r="N101" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="O101" s="71">
-        <v>28238000000</v>
+      <c r="O101" s="40" cm="1">
+        <f t="array" ref="O101">_FV(A1,"Market cap",TRUE)</f>
+        <v>30148136480</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5164,12 +5635,12 @@
       <c r="G102" s="10">
         <v>78025000</v>
       </c>
-      <c r="N102" s="64" t="s">
+      <c r="N102" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="O102" s="65">
+      <c r="O102" s="56">
         <f>O101/O103</f>
-        <v>0.97329736381798937</v>
+        <v>0.97494681318610354</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5194,12 +5665,12 @@
       <c r="G103" s="1">
         <v>1918608000</v>
       </c>
-      <c r="N103" s="66" t="s">
+      <c r="N103" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="O103" s="72">
+      <c r="O103" s="60">
         <f>O99+O101</f>
-        <v>29012716000</v>
+        <v>30922852480</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5224,10 +5695,10 @@
       <c r="G104" s="11">
         <v>1996633000</v>
       </c>
-      <c r="N104" s="60" t="s">
+      <c r="N104" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="O104" s="61"/>
+      <c r="O104" s="70"/>
     </row>
     <row r="105" spans="1:16" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5265,7 +5736,7 @@
       </c>
       <c r="O105" s="26">
         <f>(O100*O92)+(O102*O97)</f>
-        <v>8.1332117498431736E-2</v>
+        <v>8.2737892535635224E-2</v>
       </c>
       <c r="P105" s="15"/>
     </row>
@@ -5336,7 +5807,7 @@
       <c r="K107" s="28"/>
       <c r="L107" s="38">
         <f>L106*(1+O107)/(O108-O107)</f>
-        <v>34000194322.087311</v>
+        <v>33172373590.51907</v>
       </c>
       <c r="M107" s="31" t="s">
         <v>144</v>
@@ -5367,7 +5838,7 @@
       </c>
       <c r="L108" s="38">
         <f>L107+L106</f>
-        <v>35868782557.71788</v>
+        <v>35040961826.149643</v>
       </c>
       <c r="M108" s="31" t="s">
         <v>139</v>
@@ -5377,14 +5848,14 @@
       </c>
       <c r="O108" s="35">
         <f>O105</f>
-        <v>8.1332117498431736E-2</v>
+        <v>8.2737892535635224E-2</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="19" x14ac:dyDescent="0.25">
-      <c r="H109" s="56" t="s">
+      <c r="H109" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="I109" s="57"/>
+      <c r="I109" s="64"/>
     </row>
     <row r="110" spans="1:16" ht="20" x14ac:dyDescent="0.25">
       <c r="H110" s="39" t="s">
@@ -5392,7 +5863,7 @@
       </c>
       <c r="I110" s="40">
         <f>NPV(O108,H108,I108,J108,K108,L108)</f>
-        <v>27333842905.179398</v>
+        <v>26609445278.000328</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="20" x14ac:dyDescent="0.25">
@@ -5419,49 +5890,50 @@
       </c>
       <c r="I113" s="40">
         <f>I110+I111-I112</f>
-        <v>28555759905.179398</v>
+        <v>27831362278.000328</v>
       </c>
     </row>
     <row r="114" spans="8:9" ht="20" x14ac:dyDescent="0.25">
       <c r="H114" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="I114" s="55">
+      <c r="I114" s="52">
         <f>G34*(1+(5*M16))</f>
         <v>313149212.52952188</v>
       </c>
     </row>
     <row r="115" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H115" s="42" t="s">
+      <c r="H115" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="I115" s="43">
+      <c r="I115" s="71">
         <f>I113/I114</f>
-        <v>91.18898838836239</v>
+        <v>88.875721746790433</v>
       </c>
     </row>
     <row r="116" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H116" s="41" t="s">
+      <c r="H116" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="I116" s="44">
-        <v>124.93</v>
+      <c r="I116" s="62" cm="1">
+        <f t="array" ref="I116">_FV(A1,"Price")</f>
+        <v>127.82</v>
       </c>
     </row>
     <row r="117" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H117" s="45" t="s">
+      <c r="H117" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="I117" s="46">
+      <c r="I117" s="43">
         <f>I115/I116-1</f>
-        <v>-0.27007933732200129</v>
+        <v>-0.30468063099053011</v>
       </c>
     </row>
     <row r="118" spans="8:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="H118" s="45" t="s">
+      <c r="H118" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="I118" s="47" t="str">
+      <c r="I118" s="44" t="str">
         <f>IF(I115&gt;I116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
